--- a/Listagens de Inventário/FILIAL VILA OLIMPIA-SP 0446 - LAB - DESCARTÁVEIS VL OLÍMPIA.xlsx
+++ b/Listagens de Inventário/FILIAL VILA OLIMPIA-SP 0446 - LAB - DESCARTÁVEIS VL OLÍMPIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5243</v>
+        <v>5555</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5265</v>
+        <v>5578</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5234</v>
+        <v>5547</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5267</v>
+        <v>5583</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>32821</t>
+          <t>90821</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5300</v>
+        <v>5610</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5281</v>
+        <v>5595</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5309</v>
+        <v>5618</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5310</v>
+        <v>5619</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5306</v>
+        <v>5616</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5307</v>
+        <v>5620</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5355</v>
+        <v>5588</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -903,7 +903,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C221134L</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
@@ -923,7 +927,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5356</v>
+        <v>5667</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -960,7 +964,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5357</v>
+        <v>5666</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -997,7 +1001,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5358</v>
+        <v>5665</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1034,7 +1038,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5311</v>
+        <v>5621</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1071,7 +1075,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5359</v>
+        <v>5669</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1108,7 +1112,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5360</v>
+        <v>5591</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1125,7 +1129,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C23033NV</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1145,7 +1153,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5277</v>
+        <v>5590</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1186,7 +1194,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5224</v>
+        <v>5551</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1205,7 +1213,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1094621</t>
+          <t>2094921</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1227,16 +1235,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5238</v>
+        <v>5542</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10024485</t>
+          <t>10024644</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SALIVETE</t>
+          <t>COLETOR DE FEZES SECO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1246,7 +1254,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2094421</t>
+          <t>12300359</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1268,16 +1276,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5239</v>
+        <v>5533</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10024485</t>
+          <t>10024645</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SALIVETE</t>
+          <t>RECIPIENTE URINA 24H</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1287,7 +1295,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2094921</t>
+          <t>0923P19</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1309,16 +1317,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5229</v>
+        <v>5532</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10024644</t>
+          <t>10024645</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COLETOR DE FEZES SECO</t>
+          <t>RECIPIENTE URINA 24H</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1328,7 +1336,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12300170</t>
+          <t>0723P17</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1350,16 +1358,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5220</v>
+        <v>5601</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10024645</t>
+          <t>10024648</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RECIPIENTE URINA 24H</t>
+          <t>TUBO EAS ESTERIL 80ML</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1369,7 +1377,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0923P19</t>
+          <t>CE040923A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1391,16 +1399,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5219</v>
+        <v>5539</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10024645</t>
+          <t>10024648</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RECIPIENTE URINA 24H</t>
+          <t>TUBO EAS ESTERIL 80ML</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1410,7 +1418,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0723P17</t>
+          <t>12100281</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1432,16 +1440,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5290</v>
+        <v>5622</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10024648</t>
+          <t>10024649</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TUBO EAS ESTERIL 80ML</t>
+          <t>BAG TARJA ROXA 13 X 24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1449,11 +1457,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>CE040923A</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1473,16 +1477,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5312</v>
+        <v>5617</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10024649</t>
+          <t>10024655</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BAG TARJA ROXA 13 X 24</t>
+          <t>BAG TARJA VERMELHA 20 X 40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1510,16 +1514,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5308</v>
+        <v>5575</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10024655</t>
+          <t>10024656</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BAG TARJA VERMELHA 20 X 40</t>
+          <t>KIT ACIDO 0,8 ML/L 20 ML</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1527,7 +1531,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>258110</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -1547,16 +1555,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5261</v>
+        <v>5607</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10024656</t>
+          <t>10024658</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KIT ACIDO 0,8 ML/L 20 ML</t>
+          <t xml:space="preserve">KIT URINA 12ML FRASCO - TUBO </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1566,7 +1574,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>258110</t>
+          <t>KE150923A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1588,7 +1596,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5294</v>
+        <v>5606</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1607,7 +1615,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>KE150923A</t>
+          <t>KE13072B</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1629,7 +1637,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5295</v>
+        <v>5605</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1648,7 +1656,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>KE190723B</t>
+          <t>KE090823C</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1670,7 +1678,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5237</v>
+        <v>5548</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1712,17 +1720,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5235</v>
+        <v>5623</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10024659</t>
+          <t>10024663</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">LAMINA PAPANICOLAU FOSCA
-</t>
+          <t>TAMPA PARA TUBO AMBAR 12 X 75</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1730,11 +1737,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>202111</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -1754,16 +1757,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5313</v>
+        <v>5564</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10024663</t>
+          <t>10024664</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TAMPA PARA TUBO AMBAR 12 X 75</t>
+          <t>TUBO AMBAR 12 X 75 CRAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1771,7 +1774,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>23080805</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -1791,7 +1798,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5252</v>
+        <v>5565</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1832,7 +1839,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5275</v>
+        <v>5589</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1873,7 +1880,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5361</v>
+        <v>5579</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1890,7 +1897,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3076414</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -1910,7 +1921,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5280</v>
+        <v>5594</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1951,16 +1962,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5289</v>
+        <v>5544</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10025433</t>
+          <t>10025504</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TUBO TRACE SEM ADITIVO 6ML</t>
+          <t>ETIQUETA TERMICA 50X25 - 1 COLUNA - TARJA VERDE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1970,7 +1981,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>C230735J</t>
+          <t>16232</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1992,16 +2003,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5231</v>
+        <v>5670</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10025504</t>
+          <t>10027308</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ETIQUETA TERMICA 50X25 - 1 COLUNA - TARJA VERDE</t>
+          <t>SWAB CARVAO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2009,11 +2020,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>15912</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2033,16 +2040,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5362</v>
+        <v>5624</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10027308</t>
+          <t>10027318</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SWAB CARVAO</t>
+          <t>BAG TARJA ROXA 18 X 22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2070,16 +2077,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5314</v>
+        <v>5545</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10027318</t>
+          <t>10027355</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BAG TARJA ROXA 18 X 22</t>
+          <t>PAPEL FILTRO PEZINHO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2087,7 +2094,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>17585396</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2107,16 +2118,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5232</v>
+        <v>5599</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10027355</t>
+          <t>10028676</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PAPEL FILTRO PEZINHO</t>
+          <t>TUBO DE CITRATO DE SODIO 4ML</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2126,7 +2137,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17585396</t>
+          <t>C23053JL</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2148,7 +2159,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5285</v>
+        <v>5593</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2167,7 +2178,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C23053JL</t>
+          <t>C2305337</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2189,16 +2200,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5279</v>
+        <v>5600</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10028676</t>
+          <t>10028677</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TUBO DE CITRATO DE SODIO 4ML</t>
+          <t>TUBO TRANSPORTE 4ML</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2208,7 +2219,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C2305337</t>
+          <t>C230734A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2230,16 +2241,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5278</v>
+        <v>5585</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10028676</t>
+          <t>10028678</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TUBO DE CITRATO DE SODIO 4ML</t>
+          <t>TUBO FLUORETO DE SODIO 2ML</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2249,7 +2260,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>C23043QV</t>
+          <t>A221039T</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2271,16 +2282,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5286</v>
+        <v>5598</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10028677</t>
+          <t>10028679</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TUBO TRANSPORTE 4ML</t>
+          <t>TUBO SORO GEL 5ML</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2290,7 +2301,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>C230734A</t>
+          <t>C230535B</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2312,16 +2323,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5276</v>
+        <v>5597</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10028677</t>
+          <t>10028680</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TUBO TRANSPORTE 4ML</t>
+          <t>TUBO K3EDTA 4ML</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2331,7 +2342,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C230239P</t>
+          <t>C230534L</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2353,16 +2364,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5271</v>
+        <v>5596</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10028678</t>
+          <t>10028680</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TUBO FLUORETO DE SODIO 2ML</t>
+          <t>TUBO K3EDTA 4ML</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2372,7 +2383,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A221039T</t>
+          <t>C230534J</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2394,16 +2405,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5272</v>
+        <v>5592</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10028678</t>
+          <t>10028680</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TUBO FLUORETO DE SODIO 2ML</t>
+          <t>TUBO K3EDTA 4ML</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2413,7 +2424,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A23023BG</t>
+          <t>C230434C</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2435,16 +2446,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5288</v>
+        <v>5668</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10028679</t>
+          <t>10028681</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TUBO SORO GEL 5ML</t>
+          <t>TUBO HEPARINA 9ML</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2452,11 +2463,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>C230735A</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -2476,16 +2483,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5284</v>
+        <v>5535</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10028679</t>
+          <t>10029309</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TUBO SORO GEL 5ML</t>
+          <t>PORTA LAMINA DE CITOLOGIA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2495,7 +2502,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>C230535B</t>
+          <t>104143</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -2517,16 +2524,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5282</v>
+        <v>5615</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10028680</t>
+          <t>10029753</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TUBO K3EDTA 4ML</t>
+          <t xml:space="preserve">BAG TOXICOLOGICO 13 X 24 LARANJA 
+</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2534,11 +2542,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>C230534J</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -2558,16 +2562,17 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5283</v>
+        <v>5654</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10028680</t>
+          <t>10029754</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TUBO K3EDTA 4ML</t>
+          <t xml:space="preserve">BAG TOXICOLOGICO 30 X 43 LARANJA 
+</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2575,11 +2580,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>C230534L</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -2599,16 +2600,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5287</v>
+        <v>5560</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10028680</t>
+          <t>10030001</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TUBO K3EDTA 4ML</t>
+          <t>ADAPTADOR PARA COLETA A VACUO TRANSPARENTE - CANHAO</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2618,7 +2619,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>C230734P</t>
+          <t>2222818</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2640,16 +2641,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5363</v>
+        <v>5580</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10028681</t>
+          <t>10030001</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TUBO HEPARINA 9ML</t>
+          <t>ADAPTADOR PARA COLETA A VACUO TRANSPARENTE - CANHAO</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2657,7 +2658,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3142490</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -2677,16 +2682,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5222</v>
+        <v>5567</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10029309</t>
+          <t>10030003</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PORTA LAMINA DE CITOLOGIA</t>
+          <t>AGULHA A VACUO 21G COM TRAVAS DE SEGURANCA (VERDE)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2696,7 +2701,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>104143</t>
+          <t>2342207</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2718,17 +2723,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5305</v>
+        <v>5577</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10029753</t>
+          <t>10030003</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAG TOXICOLOGICO 13 X 24 LARANJA 
-</t>
+          <t>AGULHA A VACUO 21G COM TRAVAS DE SEGURANCA (VERDE)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2736,7 +2740,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3026491</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -2756,17 +2764,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5344</v>
+        <v>5536</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10029754</t>
+          <t>10030004</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAG TOXICOLOGICO 30 X 43 LARANJA 
-</t>
+          <t>AGULHA A VACUO 22G COM TRAVAS DE SEGURANCA (PRETA)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2774,7 +2781,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1091824</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -2794,16 +2805,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5247</v>
+        <v>5584</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10030001</t>
+          <t>10030004</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ADAPTADOR PARA COLETA A VACUO TRANSPARENTE - CANHAO</t>
+          <t>AGULHA A VACUO 22G COM TRAVAS DE SEGURANCA (PRETA)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2813,7 +2824,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2222818</t>
+          <t>9305493</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2835,16 +2846,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5266</v>
+        <v>5566</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10030001</t>
+          <t>10030016</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ADAPTADOR PARA COLETA A VACUO TRANSPARENTE - CANHAO</t>
+          <t>ALCOOL 70% LÍQUIDO</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2854,13 +2865,13 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3142490</t>
+          <t>23300</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -2876,16 +2887,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5254</v>
+        <v>5554</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10030003</t>
+          <t>10030017</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGULHA A VACUO 21G COM TRAVAS DE SEGURANCA (VERDE)</t>
+          <t>ALGODAO HIDROFILO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2895,7 +2906,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2342207</t>
+          <t>21422</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2917,16 +2928,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5264</v>
+        <v>5631</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10030003</t>
+          <t>10030019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AGULHA A VACUO 21G COM TRAVAS DE SEGURANCA (VERDE)</t>
+          <t>AVENTAL DESCARTAVEL</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2934,11 +2945,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>3012295</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
@@ -2958,16 +2965,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5223</v>
+        <v>5632</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10030004</t>
+          <t>10030020</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AGULHA A VACUO 22G COM TRAVAS DE SEGURANCA (PRETA)</t>
+          <t>BOBINA PLASTICA PICOTADA 30X40 (3L)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2975,11 +2982,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>1091824</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -2999,16 +3002,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5253</v>
+        <v>5534</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10030016</t>
+          <t>10030021</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ALCOOL 70% LÍQUIDO</t>
+          <t>BOLSA DE GEL PROMOCIONAL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3018,13 +3021,13 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23261</t>
+          <t>102022</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3040,16 +3043,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5242</v>
+        <v>5602</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10030017</t>
+          <t>10030026</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ALGODAO HIDROFILO</t>
+          <t>CAIXA COLETORA DE PERFURO CORTANTE 1,5L</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3059,7 +3062,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21422</t>
+          <t>CO15AA0182</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3081,16 +3084,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5321</v>
+        <v>5587</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10030019</t>
+          <t>10030028</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AVENTAL DESCARTAVEL</t>
+          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3098,7 +3101,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>C1852</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
@@ -3118,16 +3125,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5322</v>
+        <v>5574</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10030020</t>
+          <t>10030030</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BOBINA PLASTICA PICOTADA 30X40 (3L)</t>
+          <t>CURATIVO REDONDO PERSONALIZADO BEEP</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3135,7 +3142,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>24723</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
@@ -3155,16 +3166,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5221</v>
+        <v>5546</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10030021</t>
+          <t>10030030</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BOLSA DE GEL PROMOCIONAL</t>
+          <t>CURATIVO REDONDO PERSONALIZADO BEEP</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3174,7 +3185,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>102022</t>
+          <t>18023</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -3196,16 +3207,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5291</v>
+        <v>5582</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10030026</t>
+          <t>10030034</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CAIXA COLETORA DE PERFURO CORTANTE 1,5L</t>
+          <t>GAZE HIDROFILA ESTERIL</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3215,7 +3226,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CO15AA0182</t>
+          <t>647482204</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3237,16 +3248,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5268</v>
+        <v>5586</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10030028</t>
+          <t>10030034</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
+          <t>GAZE HIDROFILA ESTERIL</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3256,7 +3267,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>48920</t>
+          <t>B05-1</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3278,16 +3289,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5274</v>
+        <v>5581</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10030028</t>
+          <t>10030035</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
+          <t>HIPOCLORITO 1%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3297,13 +3308,13 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>C1991</t>
+          <t>56327</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -3319,16 +3330,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5260</v>
+        <v>5629</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10030030</t>
+          <t>10030036</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CURATIVO REDONDO PERSONALIZADO BEEP</t>
+          <t>KIT SEXAGEM - BALAO VERDE BEEP</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3336,11 +3347,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>24723</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
@@ -3360,16 +3367,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5270</v>
+        <v>5630</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10030034</t>
+          <t>10030037</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GAZE HIDROFILA ESTERIL</t>
+          <t>KIT SEXAGEM - CARTAO KIT SEXAGEM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3377,11 +3384,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>647482204</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
@@ -3401,16 +3404,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5273</v>
+        <v>5634</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10030034</t>
+          <t>10030038</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GAZE HIDROFILA ESTERIL</t>
+          <t>KIT SEXAGEM - EMBALAGEM BASCULANTE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3418,11 +3421,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>B21-1</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
@@ -3442,16 +3441,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5296</v>
+        <v>5674</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10030035</t>
+          <t>10030039</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>HIPOCLORITO 1%</t>
+          <t>KIT SEXAGEM - FITA CETIM (BRANCA 10M X 16MM)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3459,15 +3458,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>P23070015</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3483,16 +3478,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5319</v>
+        <v>5675</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10030036</t>
+          <t>10030040</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - BALAO VERDE BEEP</t>
+          <t>KIT SEXAGEM - FITA CETIM (BRANCA 60M X 16MM)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3520,16 +3515,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5320</v>
+        <v>5612</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10030037</t>
+          <t>10030041</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - CARTAO KIT SEXAGEM</t>
+          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE AZUL</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3541,7 +3536,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>QUILOGRAMA</t>
         </is>
       </c>
     </row>
@@ -3557,16 +3552,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5324</v>
+        <v>5613</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10030038</t>
+          <t>10030042</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - EMBALAGEM BASCULANTE</t>
+          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE ROSA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3578,7 +3573,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>QUILOGRAMA</t>
         </is>
       </c>
     </row>
@@ -3594,16 +3589,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5365</v>
+        <v>5672</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10030039</t>
+          <t>10030044</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - FITA CETIM (BRANCA 10M X 16MM)</t>
+          <t>LANCETA BD 2,50X1,00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3631,16 +3626,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5366</v>
+        <v>5604</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10030040</t>
+          <t>10030045</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - FITA CETIM (BRANCA 60M X 16MM)</t>
+          <t>LUVA NITRÍLICA SEM PO G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3648,7 +3643,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>IN22016682</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
@@ -3668,16 +3667,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5302</v>
+        <v>5609</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10030041</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE AZUL</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3685,11 +3684,15 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>XL220917</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>QUILOGRAMA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3705,16 +3708,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5303</v>
+        <v>5562</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10030042</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE ROSA</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3722,11 +3725,15 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>230204187</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>QUILOGRAMA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3742,16 +3749,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5367</v>
+        <v>5550</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10030044</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LANCETA BD 2,50X1,00</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3759,7 +3766,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>20230060A</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
@@ -3779,16 +3790,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5293</v>
+        <v>5549</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10030045</t>
+          <t>10030047</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO G</t>
+          <t>LUVA NITRÍLICA SEM PO P</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3798,7 +3809,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>IN22016682</t>
+          <t>20230044A</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3820,16 +3831,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5299</v>
+        <v>5563</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10030046</t>
+          <t>10030047</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO M</t>
+          <t>LUVA NITRÍLICA SEM PO P</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3839,7 +3850,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>XL220917</t>
+          <t>230302443</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3861,16 +3872,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5248</v>
+        <v>5608</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10030046</t>
+          <t>10030048</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO M</t>
+          <t>LUVA NITRÍLICA SEM PO PP</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3880,7 +3891,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>230100426</t>
+          <t>SNFTAA065X</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3902,16 +3913,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5236</v>
+        <v>5557</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10030047</t>
+          <t>10030050</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO P</t>
+          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3921,7 +3932,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20220085A</t>
+          <t>22015405</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3943,16 +3954,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5250</v>
+        <v>5529</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10030047</t>
+          <t>10030051</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO P</t>
+          <t>MASCARA DESCARTAVEL N95</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3962,7 +3973,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>230204186</t>
+          <t>0104202101A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3984,16 +3995,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5251</v>
+        <v>5625</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10030047</t>
+          <t>10030053</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO P</t>
+          <t>PAPEL ALUMÍNIO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4001,11 +4012,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>230302443</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
@@ -4025,16 +4032,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5297</v>
+        <v>5626</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>10030048</t>
+          <t>10030054</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO PP</t>
+          <t>PAPEL TOALHA INTERFOLHADO</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4042,11 +4049,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>SNFTAA065X</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
@@ -4066,16 +4069,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5263</v>
+        <v>5531</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10030050</t>
+          <t>10030055</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
+          <t>PONTEIRA UNIVERSAL SEM FILTRO 1.000 µL</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4085,7 +4088,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2MEMAA0001</t>
+          <t>05102022H</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -4107,16 +4110,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5244</v>
+        <v>5530</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10030050</t>
+          <t>10030056</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
+          <t>PONTEIRA UNIVERSAL SEM FILTRO 200 µL</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4126,7 +4129,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22014504</t>
+          <t>05052021M</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -4148,16 +4151,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5269</v>
+        <v>5528</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10030051</t>
+          <t>10030057</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL N95</t>
+          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4167,7 +4170,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>5041747</t>
+          <t>002098/S</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -4189,16 +4192,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5315</v>
+        <v>5527</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10030053</t>
+          <t>10030057</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PAPEL ALUMÍNIO</t>
+          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4206,7 +4209,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>002076/S</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
@@ -4226,16 +4233,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5316</v>
+        <v>5673</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>10030054</t>
+          <t>10030058</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PAPEL TOALHA INTERFOLHADO</t>
+          <t>SABONETE LÍQUIDO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4247,7 +4254,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -4263,16 +4270,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5218</v>
+        <v>5559</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10030055</t>
+          <t>10030059</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PONTEIRA UNIVERSAL SEM FILTRO 1.000 µL</t>
+          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4282,7 +4289,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05102022H</t>
+          <t>221130U</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4304,16 +4311,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5217</v>
+        <v>5558</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10030056</t>
+          <t>10030059</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PONTEIRA UNIVERSAL SEM FILTRO 200 µL</t>
+          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4323,7 +4330,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05052021M</t>
+          <t>221014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4345,16 +4352,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5216</v>
+        <v>5553</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10030057</t>
+          <t>10030059</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
+          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4364,7 +4371,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>002098/S</t>
+          <t>211210</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4386,16 +4393,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5215</v>
+        <v>5627</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10030057</t>
+          <t>10030062</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
+          <t>SACO DE LIXO INFECTANTE 30 LITROS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4403,11 +4410,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>002076/S</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
@@ -4427,16 +4430,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5364</v>
+        <v>5628</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10030058</t>
+          <t>10030063</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SABONETE LÍQUIDO</t>
+          <t>SACO PLASTICO 16X21CM COM ADESIVO PONTA (KIT SEXAGEM)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4448,7 +4451,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -4464,16 +4467,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5241</v>
+        <v>5556</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10030059</t>
+          <t>10030065</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
+          <t>SAPATILHA PROPE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4483,7 +4486,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>2200265</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4505,16 +4508,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5245</v>
+        <v>5543</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10030059</t>
+          <t>10030066</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
+          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4524,7 +4527,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>221014</t>
+          <t>1329029</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4546,16 +4549,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5246</v>
+        <v>5540</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10030059</t>
+          <t>10030067</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
+          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4565,7 +4568,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>221130U</t>
+          <t>1215921</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4587,16 +4590,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5317</v>
+        <v>5541</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10030062</t>
+          <t>10030068</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SACO DE LIXO INFECTANTE 30 LITROS</t>
+          <t>SCALP 25G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4604,7 +4607,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1215923</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
@@ -4624,16 +4631,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5318</v>
+        <v>5576</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10030063</t>
+          <t>10030069</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SACO PLASTICO 16X21CM COM ADESIVO PONTA (KIT SEXAGEM)</t>
+          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4641,7 +4648,11 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2K21A1</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
@@ -4661,16 +4672,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5298</v>
+        <v>5572</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10030065</t>
+          <t>10030069</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SAPATILHA PROPE</t>
+          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4680,7 +4691,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>TYFAR-S0523</t>
+          <t>23C30A1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4702,16 +4713,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5230</v>
+        <v>5570</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10030066</t>
+          <t>10030069</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4721,7 +4732,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1329029</t>
+          <t>23A16A2</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -4743,16 +4754,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5227</v>
+        <v>5571</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10030067</t>
+          <t>10030070</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4762,7 +4773,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1215921</t>
+          <t>23C23A1</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4784,16 +4795,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5228</v>
+        <v>5569</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10030068</t>
+          <t>10030070</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SCALP 25G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4803,7 +4814,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1215923</t>
+          <t>23A13A1</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4825,16 +4836,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5257</v>
+        <v>5568</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10030069</t>
+          <t>10030070</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4844,7 +4855,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23A16A2</t>
+          <t>23A10A1</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4866,16 +4877,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5259</v>
+        <v>5573</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10030069</t>
+          <t>10030070</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4885,7 +4896,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23D17A1</t>
+          <t>23D21A1</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4907,16 +4918,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5262</v>
+        <v>5603</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10030069</t>
+          <t>10030071</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 25G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4926,7 +4937,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2K21A1</t>
+          <t>IB07A1</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4948,16 +4959,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5258</v>
+        <v>5538</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10030070</t>
+          <t>10030072</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
+          <t>SERINGA 10 ML LL SEM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4967,7 +4978,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23C23A1</t>
+          <t>1132410</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4989,16 +5000,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5255</v>
+        <v>5537</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10030070</t>
+          <t>10030075</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
+          <t>SERINGA 5 ML LL SEM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5008,7 +5019,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23A10A1</t>
+          <t>1132386</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -5030,16 +5041,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5256</v>
+        <v>5561</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10030070</t>
+          <t>10030078</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
+          <t>SWAB ALCOOL 70°</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5049,7 +5060,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23A13A1</t>
+          <t>23020106</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5071,16 +5082,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5233</v>
+        <v>5552</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10030070</t>
+          <t>10030079</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
+          <t>TOUCA DESCARTAVEL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5090,7 +5101,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1C17A2</t>
+          <t>21031000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -5112,16 +5123,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5292</v>
+        <v>5633</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10030071</t>
+          <t>10030080</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 25G COM TRAVA DE SEGURANCA</t>
+          <t>PILHA AAA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5129,11 +5140,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>IB07A1</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
@@ -5153,16 +5160,17 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5226</v>
+        <v>5655</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10030072</t>
+          <t>10030083</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SERINGA 10 ML LL SEM TRAVA DE SEGURANCA</t>
+          <t xml:space="preserve">SACO DE LIXO PRETO 30L
+</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5170,11 +5178,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>1132410</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
@@ -5194,16 +5198,17 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5225</v>
+        <v>5656</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10030075</t>
+          <t>10030087</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SERINGA 5 ML LL SEM TRAVA DE SEGURANCA</t>
+          <t xml:space="preserve">ATESTADO DE BRAVURA MES ATUAL
+</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5211,11 +5216,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>1132386</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
@@ -5235,16 +5236,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5249</v>
+        <v>5657</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10030078</t>
+          <t>10030096</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SWAB ALCOOL 70°</t>
+          <t>ELASTICO AMARELO 500G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5252,11 +5253,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>23020106</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
@@ -5276,16 +5273,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5240</v>
+        <v>5671</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10030079</t>
+          <t>10030098</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL</t>
+          <t>PAPEL SULFITE A4 75G</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5293,11 +5290,7 @@
           <t>LAB</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>21031000</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
@@ -5317,16 +5310,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5323</v>
+        <v>5658</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10030080</t>
+          <t>10030099</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PILHA AAA</t>
+          <t>BOBINA PLASTICA PICOTADA (2L)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5354,17 +5347,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5345</v>
+        <v>5659</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10030083</t>
+          <t>10030100</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">SACO DE LIXO PRETO 30L
-</t>
+          <t>SACO DE LIXO PRETO 40L</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5392,17 +5384,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5346</v>
+        <v>5660</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10030087</t>
+          <t>10030102</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">ATESTADO DE BRAVURA MES ATUAL
-</t>
+          <t>SACO PLASTICO 15X22CM SEM ADESIVO</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5430,16 +5421,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5347</v>
+        <v>5611</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10030096</t>
+          <t>10060415</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ELASTICO AMARELO 500G</t>
+          <t>GRAMPO 26/6 GALVANIZ 5000UN GRAMPLINE</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5451,7 +5442,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>CAIXA</t>
         </is>
       </c>
     </row>
@@ -5467,16 +5458,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5368</v>
+        <v>5637</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10030098</t>
+          <t>10060418</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE A4 75G</t>
+          <t>ETIQ TP12 AMARELO 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5504,16 +5495,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5348</v>
+        <v>5638</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10030099</t>
+          <t>10060419</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>BOBINA PLASTICA PICOTADA (2L)</t>
+          <t>ETIQ TP12 AZUL 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5541,16 +5532,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5349</v>
+        <v>5639</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10030100</t>
+          <t>10060420</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SACO DE LIXO PRETO 40L</t>
+          <t>ETIQ TP12 VERMELHO 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5578,16 +5569,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5350</v>
+        <v>5641</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10030102</t>
+          <t>10060441</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SACO PLASTICO 15X22CM SEM ADESIVO</t>
+          <t>LAPIS PRETO HB EVOL RED BIC</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5615,16 +5606,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5301</v>
+        <v>5642</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>10060415</t>
+          <t>10060443</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>GRAMPO 26/6 GALVANIZ 5000UN GRAMPLINE</t>
+          <t>REGUA 30CM AZ POLIES 981.2 ACRIMET</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5636,7 +5627,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -5652,16 +5643,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5327</v>
+        <v>5643</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10060418</t>
+          <t>10060452</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ETIQ TP12 AMARELO 12MM 210 ETIQ PIMACO</t>
+          <t>APONTADOR C/DEP RETANG SORT C/1 CIS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5689,16 +5680,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5328</v>
+        <v>5644</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10060419</t>
+          <t>10060456</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ETIQ TP12 AZUL 12MM 210 ETIQ PIMACO</t>
+          <t>CLIPS N.2/0 GALVANIZ L.LEVE 720UN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5726,16 +5717,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5329</v>
+        <v>5645</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10060420</t>
+          <t>10060465</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ETIQ TP12 VERMELHO 12MM 210 ETIQ PIMACO</t>
+          <t>BORRACHA C/CAPA C/1 RADEX</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5763,16 +5754,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5331</v>
+        <v>5646</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10060441</t>
+          <t>10060468</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>LAPIS PRETO HB EVOL RED BIC</t>
+          <t>CANETA ESF 1.0 AZ CRISTAL BIC</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5800,16 +5791,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5332</v>
+        <v>5647</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10060443</t>
+          <t>10060477</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>REGUA 30CM AZ POLIES 981.2 ACRIMET</t>
+          <t>PINCEL RETROPROJ AZ PTA 2MM PILOT</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5837,16 +5828,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5333</v>
+        <v>5636</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10060452</t>
+          <t>10060506</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>APONTADOR C/DEP RETANG SORT C/1 CIS</t>
+          <t>PASTA ABA ELAST PP (MINI) CRISTAL A01B</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5874,16 +5865,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5334</v>
+        <v>5640</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>10060456</t>
+          <t>10060534</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CLIPS N.2/0 GALVANIZ L.LEVE 720UN</t>
+          <t>ARQUIVO MORTO POLIONDA OF VERDE</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5911,16 +5902,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5335</v>
+        <v>5635</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>10060465</t>
+          <t>10060560</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>BORRACHA C/CAPA C/1 RADEX</t>
+          <t xml:space="preserve">CADERNO 100 FOLHAS </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5948,16 +5939,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5336</v>
+        <v>5648</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10060468</t>
+          <t>10060570</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CANETA ESF 1.0 AZ CRISTAL BIC</t>
+          <t>ENVELOPE A4</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5985,16 +5976,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5337</v>
+        <v>5649</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10060477</t>
+          <t>10060574</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PINCEL RETROPROJ AZ PTA 2MM PILOT</t>
+          <t>FITA ADESIVA TRANSPARENTE LARGA</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6022,16 +6013,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5326</v>
+        <v>5650</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>10060506</t>
+          <t>10060578</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PASTA ABA ELAST PP (MINI) CRISTAL A01B</t>
+          <t>MARCA-TEXTO AMARELO</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6059,16 +6050,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5330</v>
+        <v>5651</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>10060534</t>
+          <t>10060581</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ARQUIVO MORTO POLIONDA OF VERDE</t>
+          <t>PASTA ABA ELASTICO GRANDE</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -6096,16 +6087,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5325</v>
+        <v>5652</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>10060560</t>
+          <t>10060582</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">CADERNO 100 FOLHAS </t>
+          <t>PASTA CATALOGO COM VISOR</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6133,16 +6124,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5338</v>
+        <v>5653</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10060570</t>
+          <t>10060583</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ENVELOPE A4</t>
+          <t>PILHA AA</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6170,16 +6161,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5339</v>
+        <v>5614</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10060574</t>
+          <t>10060587</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FITA ADESIVA TRANSPARENTE LARGA</t>
+          <t>POST-IT PEQUENO</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6207,16 +6198,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5340</v>
+        <v>5661</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10060578</t>
+          <t>10061063</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MARCA-TEXTO AMARELO</t>
+          <t>TINTA EPSON PRETA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6244,16 +6235,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5341</v>
+        <v>5662</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10060581</t>
+          <t>10061064</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PASTA ABA ELASTICO GRANDE</t>
+          <t>TINTA EPSON CIANO 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6281,16 +6272,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5342</v>
+        <v>5663</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10060582</t>
+          <t>10061065</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PASTA CATALOGO COM VISOR</t>
+          <t>TINTA EPSON MAGENTA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6318,16 +6309,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5343</v>
+        <v>5664</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10060583</t>
+          <t>10061066</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PILHA AA</t>
+          <t>TINTA EPSON AMARELA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6338,191 +6329,6 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>LAB - DESCARTÁVEIS VL OLÍMPIA</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>FILIAL VILA OLIMPIA-SP 0446</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>5304</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>10060587</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>POST-IT PEQUENO</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>LAB - DESCARTÁVEIS VL OLÍMPIA</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>FILIAL VILA OLIMPIA-SP 0446</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>5351</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>10061063</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>TINTA EPSON PRETA 5/ UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>LAB - DESCARTÁVEIS VL OLÍMPIA</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>FILIAL VILA OLIMPIA-SP 0446</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>5352</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>10061064</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>TINTA EPSON CIANO 5/ UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>LAB - DESCARTÁVEIS VL OLÍMPIA</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>FILIAL VILA OLIMPIA-SP 0446</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>5353</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>10061065</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>TINTA EPSON MAGENTA 5/ UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>LAB - DESCARTÁVEIS VL OLÍMPIA</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>FILIAL VILA OLIMPIA-SP 0446</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>5354</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>10061066</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>TINTA EPSON AMARELA 5/ UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
